--- a/EFS/20150303 Indice CRM (ver4.0).xlsx
+++ b/EFS/20150303 Indice CRM (ver4.0).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\SORT\Ingeteam\_Propuesta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\EFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:AC167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC127" sqref="AC127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1511,7 @@
       <c r="AA7" s="8"/>
       <c r="AC7" s="23"/>
     </row>
-    <row r="8" spans="1:29" ht="26.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>92</v>
@@ -1546,7 +1546,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="51.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="51.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
         <v>162</v>
@@ -1581,7 +1581,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
         <v>102</v>
@@ -1616,7 +1616,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
@@ -1653,7 +1653,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="6" customFormat="1" ht="39" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="6" customFormat="1" ht="39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
@@ -1690,7 +1690,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" ht="26.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="6" customFormat="1" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
@@ -1727,7 +1727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>211</v>
